--- a/data/trans_camb/MCS12_SP_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5484200115452994</v>
+        <v>-0.4795229060983781</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.219069095585038</v>
+        <v>-5.002390656516149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.67229727977023</v>
+        <v>-7.805502918354192</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.330408150922739</v>
+        <v>-5.106013140538538</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.72327605358278</v>
+        <v>-10.43442658685722</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.494972310490866</v>
+        <v>-4.751276166866682</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.305454873461779</v>
+        <v>-1.748225398981649</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.496416008067181</v>
+        <v>-6.184949851442972</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.035722916826054</v>
+        <v>-4.828542502169726</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.56164370819512</v>
+        <v>8.475470249464916</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.666560722165518</v>
+        <v>3.816513100193449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.532712338437462</v>
+        <v>2.612665662602257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.509928156018565</v>
+        <v>4.823818196562618</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.056964215580612</v>
+        <v>-0.6689128815465939</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.010488967296929</v>
+        <v>9.128590521901268</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.200437390534833</v>
+        <v>5.40255884282364</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.2527749561572472</v>
+        <v>-0.1613089639255102</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.821806541760508</v>
+        <v>3.712404979741182</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03923385515466106</v>
+        <v>-0.03600666574168186</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3645399968283185</v>
+        <v>-0.3569585834742937</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5904534959914329</v>
+        <v>-0.581850379935597</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2583236683891322</v>
+        <v>-0.2521527292305498</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.509586213127967</v>
+        <v>-0.4995259020621295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2320938418016185</v>
+        <v>-0.2420326589162993</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07399617342771969</v>
+        <v>-0.1042691397568188</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3847041714242449</v>
+        <v>-0.3802944057194841</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3099058395584076</v>
+        <v>-0.3013028473606706</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.93093684479573</v>
+        <v>0.897875802164119</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.397048629327109</v>
+        <v>0.3857123930022512</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2850365066224133</v>
+        <v>0.2776119914485494</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2694443194085164</v>
+        <v>0.3012428736695087</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.05108493270441501</v>
+        <v>-0.03638724652353258</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5513365951619433</v>
+        <v>0.5394175827446049</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.390235093920379</v>
+        <v>0.4077629142151977</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01628852266996709</v>
+        <v>-0.01186992358527955</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2850494542598861</v>
+        <v>0.2817074224263399</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-4.095732491124196</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.423636250768878</v>
+        <v>-1.423636250768881</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.347058202085618</v>
@@ -878,7 +878,7 @@
         <v>-0.6581985015533642</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.4790743644145584</v>
+        <v>-0.4790743644145556</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8763774902461701</v>
+        <v>0.7339787754665298</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.850427921413901</v>
+        <v>-1.552796983693902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.980836639591883</v>
+        <v>-4.767291189174184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.599164832335282</v>
+        <v>-3.332560216517511</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.705277685208353</v>
+        <v>-8.813491408127391</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.327502654524979</v>
+        <v>-6.32276993697268</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2973355164763932</v>
+        <v>0.2864443660522007</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.479493131977877</v>
+        <v>-3.555208737307227</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.93232521676084</v>
+        <v>-3.514832345220178</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.472245282562822</v>
+        <v>8.708093943367599</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.259620917726314</v>
+        <v>6.315390317932954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.254378548949588</v>
+        <v>4.634726126785229</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.62126423510562</v>
+        <v>6.289126590058279</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1626118084661708</v>
+        <v>0.4043702626116956</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.179174058718063</v>
+        <v>3.495062486693162</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.443751488196534</v>
+        <v>6.562298912612416</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.441731433397846</v>
+        <v>2.400242216932452</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.028124142850928</v>
+        <v>3.216562207878538</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1889996917841777</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.06569443028596011</v>
+        <v>-0.06569443028596024</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1957552927287816</v>
@@ -983,7 +983,7 @@
         <v>-0.03849524942976427</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.02801903545817932</v>
+        <v>-0.02801903545817916</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04054566418840998</v>
+        <v>0.0471396597152935</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1244316911977533</v>
+        <v>-0.1066857585519962</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3423854214844774</v>
+        <v>-0.3277408878267214</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1429938568058195</v>
+        <v>-0.1357914382670765</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3615211186516696</v>
+        <v>-0.3668692121187044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2650871704241824</v>
+        <v>-0.2682625988419163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01683126057635555</v>
+        <v>0.01346894159396617</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1876619089755301</v>
+        <v>-0.1924799223843164</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2182742753628037</v>
+        <v>-0.1955304705536305</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.719995391061817</v>
+        <v>0.7577052874865617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5591010965989973</v>
+        <v>0.5284022192984025</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3673691674966603</v>
+        <v>0.3906963875493411</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3483447586571194</v>
+        <v>0.3197058532711635</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01132729185381679</v>
+        <v>0.02610694744543212</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2163290902090342</v>
+        <v>0.1789068604817567</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4231617629606598</v>
+        <v>0.4161773730382434</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1637028326499282</v>
+        <v>0.1540962428088382</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2024688900931063</v>
+        <v>0.21292203575988</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.419659876342479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.926603557947303</v>
+        <v>-3.926603557947306</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.232581055152476</v>
@@ -1092,7 +1092,7 @@
         <v>-3.057225395356244</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.941592588647777</v>
+        <v>-3.941592588647774</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.198210399818512</v>
+        <v>-2.893089164871645</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.955912762685788</v>
+        <v>-8.177231570611603</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.622004608053082</v>
+        <v>-8.483551401697127</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.44574531725423</v>
+        <v>3.197123204150821</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.416676862044155</v>
+        <v>-7.215099979943989</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.961898975989615</v>
+        <v>-7.982430819557977</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.771134160308557</v>
+        <v>1.727662602335672</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.065847554211203</v>
+        <v>-6.55204886605103</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.449253003986852</v>
+        <v>-7.116530949793937</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.996264427529361</v>
+        <v>6.581307026563886</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.381127612735756</v>
+        <v>0.7944190641227462</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.958922536695286</v>
+        <v>0.4525608352583613</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.76628422002045</v>
+        <v>12.8687193454109</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.125400968771591</v>
+        <v>2.243275388857952</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3300111012700322</v>
+        <v>0.4908502966995215</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.458088548009822</v>
+        <v>8.484255340673386</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3478826025056333</v>
+        <v>-0.02231485576322594</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.8665567764238972</v>
+        <v>-0.6223456189437835</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1617244168529698</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1856990734707284</v>
+        <v>-0.1856990734707285</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3303807210614118</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1323229681441023</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1706001890920097</v>
+        <v>-0.1706001890920096</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1360105063679835</v>
+        <v>-0.1277649308575287</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3398487451170573</v>
+        <v>-0.3507487952851926</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.367055271875842</v>
+        <v>-0.3614422025306925</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1278278008254362</v>
+        <v>0.1151572383045456</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2635399995357055</v>
+        <v>-0.2659067011377074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2949285965752439</v>
+        <v>-0.2906418146576352</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0729608487085926</v>
+        <v>0.06642658705890044</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2485053242640601</v>
+        <v>-0.2630763460311585</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2964720934959971</v>
+        <v>-0.2869752684958634</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3188768248431145</v>
+        <v>0.3419912339592608</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.07387555052768953</v>
+        <v>0.03664964319208534</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.05595011364294997</v>
+        <v>0.02505367211996265</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5754044460433996</v>
+        <v>0.5752454022746406</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09785221244902158</v>
+        <v>0.1012313235217816</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0122854830797323</v>
+        <v>0.02856870154153933</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4000667620589055</v>
+        <v>0.3944506840690703</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01401344639617355</v>
+        <v>0.000372633835269302</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.03901871439525961</v>
+        <v>-0.0283672869266466</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.005605759753852</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.093285471810967</v>
+        <v>4.093285471810971</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.67016656867415</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5556787423697435</v>
+        <v>0.3720603214014266</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8513645240810214</v>
+        <v>0.7373706013092368</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7235950043694975</v>
+        <v>-0.791187718663574</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6823526735582568</v>
+        <v>-0.7114614134795958</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.855919376541016</v>
+        <v>-5.982838518550827</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.438647665279619</v>
+        <v>-9.337770252407477</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.143214890882323</v>
+        <v>1.160663886714161</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8527072944483748</v>
+        <v>-0.8161078194383824</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.247458553996242</v>
+        <v>-3.273488083586869</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.50072265734888</v>
+        <v>10.17106774009052</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.00631635442105</v>
+        <v>10.52575583277953</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.89615267798745</v>
+        <v>8.773288573248328</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.25771464961101</v>
+        <v>10.29909676116718</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.061119582342149</v>
+        <v>4.964933439755209</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3999705685713099</v>
+        <v>-0.1842974368248611</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.810457682512403</v>
+        <v>8.989548495834084</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.619557474488852</v>
+        <v>6.750159752603822</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.222732131391254</v>
+        <v>3.258393838690584</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3548083729507644</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2418293868053998</v>
+        <v>0.2418293868054</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1515038953181348</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02564375981635929</v>
+        <v>0.0118830200711778</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.038057863410646</v>
+        <v>0.03765026986048779</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03784351919131233</v>
+        <v>-0.04020073986249358</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02071840011026511</v>
+        <v>-0.02083168842017515</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.17470410303596</v>
+        <v>-0.1761554868693676</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2757923878169797</v>
+        <v>-0.2744981276721391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04428458134531484</v>
+        <v>0.04366525083158378</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.03365236235030021</v>
+        <v>-0.03274184389979943</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1264751185376148</v>
+        <v>-0.1269722379993177</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.713821944382084</v>
+        <v>0.6835448379750434</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7729043154278985</v>
+        <v>0.7515917094166529</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5929269897993698</v>
+        <v>0.6245957798162526</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3714537953355713</v>
+        <v>0.3742801450140318</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1846353447681202</v>
+        <v>0.1734433279957524</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01211423196478926</v>
+        <v>-0.003845455616613719</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.411318553161747</v>
+        <v>0.4103177904568319</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3062548625099046</v>
+        <v>0.3110778051208286</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1462660708430839</v>
+        <v>0.1550737940137192</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-3.579223117529234</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.228687551742338</v>
+        <v>-1.228687551742333</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.942856892294596</v>
@@ -1511,7 +1511,7 @@
         <v>0.8352038067831302</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.062736539504894</v>
+        <v>-1.062736539504899</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.432888062442014</v>
@@ -1520,7 +1520,7 @@
         <v>-1.338620013143804</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.217159496577036</v>
+        <v>-1.21715949657703</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.558505274492338</v>
+        <v>-3.621360731113438</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.675002682301471</v>
+        <v>-9.109779522857558</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.870405768780532</v>
+        <v>-6.862640105960681</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2952534364870237</v>
+        <v>0.5510905444795177</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.225919788381748</v>
+        <v>-5.705135001236126</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.733153346215951</v>
+        <v>-6.18120293543347</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.387675693544435</v>
+        <v>-0.1705127146838422</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.636543459767295</v>
+        <v>-5.369176908607707</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.825280260736768</v>
+        <v>-4.974692060250528</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.681342217650787</v>
+        <v>8.437699525572699</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.165127893306913</v>
+        <v>2.586320707913956</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.857079233036784</v>
+        <v>4.448468880897378</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.70504688652124</v>
+        <v>13.55474489651983</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.519625485950958</v>
+        <v>7.076295680320229</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.94553466822752</v>
+        <v>4.756944480749939</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.275692781407399</v>
+        <v>9.047053378359273</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.826827629045656</v>
+        <v>2.905045258297755</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.560353771913367</v>
+        <v>2.719289339231735</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1430503119087529</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.04910678427794545</v>
+        <v>-0.04910678427794523</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2114981614722891</v>
@@ -1616,7 +1616,7 @@
         <v>0.02544256238168098</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.03237382358898411</v>
+        <v>-0.03237382358898428</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1528099388311818</v>
@@ -1625,7 +1625,7 @@
         <v>-0.04614473441362163</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.04195776333618212</v>
+        <v>-0.04195776333618193</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.160702663605217</v>
+        <v>-0.1309070262693019</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3395753449217083</v>
+        <v>-0.330535579606246</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2414004842918534</v>
+        <v>-0.2355094050194535</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.008530643509399001</v>
+        <v>0.01375555936331183</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1724013343604647</v>
+        <v>-0.1597678382660337</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1859005891127484</v>
+        <v>-0.1698173994158331</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01098220474014027</v>
+        <v>-0.003839619252453697</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1797347163645161</v>
+        <v>-0.1768349112002389</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1551329388234519</v>
+        <v>-0.1581290470523418</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3552849056794276</v>
+        <v>0.4059699080225684</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1132774806173613</v>
+        <v>0.1178565618580354</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1786311983521546</v>
+        <v>0.2213240149855402</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4755804171508655</v>
+        <v>0.4590942605364716</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2554689665175195</v>
+        <v>0.2344540078280971</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1347578325039034</v>
+        <v>0.167157919400246</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3413125790397313</v>
+        <v>0.3475370798399869</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1071907925019847</v>
+        <v>0.1038445214522205</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.09680265150322512</v>
+        <v>0.1044142697814739</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.002991987034697</v>
+        <v>-8.574927547433999</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-15.67908331845059</v>
+        <v>-15.41175631541894</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.420018064086479</v>
+        <v>-8.605769891045165</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.9149153116469182</v>
+        <v>-0.5378669839340546</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.332564637785573</v>
+        <v>-3.065792213999503</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.096517364507028</v>
+        <v>-4.458105818943761</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.193245755401392</v>
+        <v>-2.636150367601671</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.578559912631926</v>
+        <v>-7.065013320255016</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.687341441166565</v>
+        <v>-4.746394074247728</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.355459044867579</v>
+        <v>5.553757627862744</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.769395925767167</v>
+        <v>-2.15598122586312</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.408060440445858</v>
+        <v>3.562170481658093</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.40503314253552</v>
+        <v>13.27303650572947</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.33823777934361</v>
+        <v>10.96136330425462</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.966471008064739</v>
+        <v>7.140611564232153</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.383395550059663</v>
+        <v>7.128789865205774</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.994456608600252</v>
+        <v>2.66033010491735</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.726073996321006</v>
+        <v>3.735842767072073</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2992330989385182</v>
+        <v>-0.2925951603459263</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5164170168427804</v>
+        <v>-0.4912967744267228</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2687314843916945</v>
+        <v>-0.2773168580564943</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02663179779461871</v>
+        <v>-0.01631240954007001</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.06562240723596474</v>
+        <v>-0.08725615523761859</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1205837557321727</v>
+        <v>-0.1303582861888422</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.07040456871053875</v>
+        <v>-0.08618258907702613</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2075511308939782</v>
+        <v>-0.2209896477225417</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1453914502694623</v>
+        <v>-0.1480783823687867</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2366947052814672</v>
+        <v>0.2381433303837704</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1162515352286763</v>
+        <v>-0.08579475969288056</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1984965975028973</v>
+        <v>0.1424471274517704</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4808686535400287</v>
+        <v>0.4872232185789998</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4077603921019852</v>
+        <v>0.3939851741874647</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.253720194761194</v>
+        <v>0.2703229386863697</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2790918332341634</v>
+        <v>0.2652786278460731</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1152364831977669</v>
+        <v>0.09383586566466928</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1428343388122813</v>
+        <v>0.1360676146220151</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.194787753527229</v>
+        <v>-2.656853396138629</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.451588511820734</v>
+        <v>-7.294140509652931</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.194632028312871</v>
+        <v>-2.726201283141864</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.641502326194939</v>
+        <v>6.953761613075697</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5477234898094528</v>
+        <v>-1.22703644969463</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.183450056021192</v>
+        <v>4.675393225095452</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.332009481500674</v>
+        <v>5.311577455935666</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.0992100727798825</v>
+        <v>-0.6227871000865559</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.318062442637845</v>
+        <v>3.616958675567658</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.98529674325922</v>
+        <v>14.39998329582818</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.108738949108302</v>
+        <v>8.638498384247981</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12.30029249259414</v>
+        <v>11.93651712375662</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22.30306654218647</v>
+        <v>21.74201893112937</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.63127063263994</v>
+        <v>13.92319044790944</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>18.01568391726709</v>
+        <v>18.07648810264339</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.78395948429002</v>
+        <v>16.40652457864999</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>10.92591929221672</v>
+        <v>10.63465786134422</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>14.26331800004075</v>
+        <v>13.70934540318137</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1091059875928829</v>
+        <v>-0.08521861294684677</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.210128666713385</v>
+        <v>-0.2259924718697748</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1038659997577218</v>
+        <v>-0.08169740271419555</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1798726753158015</v>
+        <v>0.1889008002128505</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01048423571310986</v>
+        <v>-0.04000844269070092</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1373640102045079</v>
+        <v>0.1244556642169244</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1706406246500141</v>
+        <v>0.1654338663126956</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.0004756321101128532</v>
+        <v>-0.02040827303915172</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1281330710491944</v>
+        <v>0.1004316516619775</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6116523202360304</v>
+        <v>0.6416665747280783</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3985995860231291</v>
+        <v>0.3794862128722338</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5640237158384253</v>
+        <v>0.5293567173762861</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.802260125511336</v>
+        <v>0.8001325989144925</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5417138466293679</v>
+        <v>0.4991566118166098</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.660169647620535</v>
+        <v>0.6733216426367126</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6535401535916453</v>
+        <v>0.6173146955182158</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4196191481233016</v>
+        <v>0.4061785970662227</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5426974619814473</v>
+        <v>0.5124290219038132</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>0.22779937794907</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1.02470210937172</v>
+        <v>1.024702109371722</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>6.126622269550619</v>
@@ -2162,7 +2162,7 @@
         <v>0.2510742630132845</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.174212772565009</v>
+        <v>1.174212772565006</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.489136115613495</v>
+        <v>1.606552428496381</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.718040046516696</v>
+        <v>-1.667581763112667</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.9378960507184675</v>
+        <v>-0.8394996425860189</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.989304396834274</v>
+        <v>3.859483974571123</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.046938740883746</v>
+        <v>-1.97188233848519</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.657567137721935</v>
+        <v>-0.761280303003928</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.376691946221799</v>
+        <v>3.486237443728891</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.174036422860114</v>
+        <v>-1.159976355815672</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.2671545139297836</v>
+        <v>-0.1555738658824466</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.645266624583321</v>
+        <v>5.66675982758675</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.267804535194192</v>
+        <v>2.246542818291902</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.004881281435319</v>
+        <v>3.040007041215161</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.508512561419261</v>
+        <v>8.19523097148166</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.235267404888454</v>
+        <v>2.546171807871318</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.390378784520181</v>
+        <v>3.302402582405178</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.270165499252762</v>
+        <v>6.567008163189088</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.718078718894004</v>
+        <v>1.73059028203475</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.644098952163954</v>
+        <v>2.643765996018671</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.01222516789449775</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.05499205240023092</v>
+        <v>0.05499205240023108</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2307680996990569</v>
@@ -2267,7 +2267,7 @@
         <v>0.01108384423324407</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.05183642206731311</v>
+        <v>0.05183642206731299</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.0760295596182287</v>
+        <v>0.08528315115170183</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.08722097772660467</v>
+        <v>-0.08552970900735322</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.0481573915484242</v>
+        <v>-0.0435836946301876</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1440052723038476</v>
+        <v>0.1372705140510313</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.07367397372860289</v>
+        <v>-0.07137248749795534</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.02569299474461225</v>
+        <v>-0.02780484530178143</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1442800934607688</v>
+        <v>0.1498485015915767</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.0504388857115395</v>
+        <v>-0.05036432318671542</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.01187265770617896</v>
+        <v>-0.006373405698258327</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3165300900281507</v>
+        <v>0.3249733039849931</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.131022888067299</v>
+        <v>0.1281601703043734</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.169418681715147</v>
+        <v>0.173827662737605</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.329102801390492</v>
+        <v>0.3187593612495427</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.08766864038761858</v>
+        <v>0.1008954869460695</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1341824257009598</v>
+        <v>0.1282350107330137</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2876191252191626</v>
+        <v>0.3011051665246964</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.07785057167681969</v>
+        <v>0.07940554407440242</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1202127155708256</v>
+        <v>0.1209500182301967</v>
       </c>
     </row>
     <row r="52">
